--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T13:23:12+00:00</t>
+    <t>2021-09-20T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -348,37 +348,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>25</v>
       </c>
     </row>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:40:53+00:00</t>
+    <t>2021-09-21T08:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T08:52:01+00:00</t>
+    <t>2021-09-21T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T15:01:56+00:00</t>
+    <t>2021-09-22T07:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T07:45:14+00:00</t>
+    <t>2021-09-22T09:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T09:12:54+00:00</t>
+    <t>2021-09-22T13:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:43:36+00:00</t>
+    <t>2021-09-22T15:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T15:57:27+00:00</t>
+    <t>2021-09-23T11:40:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T11:40:39+00:00</t>
+    <t>2021-09-23T13:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T13:45:12+00:00</t>
+    <t>2021-09-23T14:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T14:45:21+00:00</t>
+    <t>2021-09-23T15:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:34:19+00:00</t>
+    <t>2021-09-24T07:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:01:44+00:00</t>
+    <t>2021-09-24T07:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:40:05+00:00</t>
+    <t>2021-09-24T08:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T08:26:22+00:00</t>
+    <t>2021-09-24T11:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T11:35:02+00:00</t>
+    <t>2021-09-24T14:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T14:58:19+00:00</t>
+    <t>2021-10-06T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:45:34+00:00</t>
+    <t>2021-10-06T12:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:46:26+00:00</t>
+    <t>2021-10-07T14:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T14:16:54+00:00</t>
+    <t>2021-10-07T15:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:34:09+00:00</t>
+    <t>2021-10-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T06:35:20+00:00</t>
+    <t>2021-10-15T15:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:58:09+00:00</t>
+    <t>2021-10-29T12:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:52:32+00:00</t>
+    <t>2021-11-10T15:45:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T15:45:42+00:00</t>
+    <t>2021-12-01T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T10:36:06+00:00</t>
+    <t>2021-12-01T15:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T15:42:29+00:00</t>
+    <t>2021-10-07T15:14:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Laboratory test</t>
+  </si>
+  <si>
+    <t>312856000</t>
+  </si>
+  <si>
+    <t>Referral to diabetes nurse</t>
+  </si>
+  <si>
+    <t>183545006</t>
+  </si>
+  <si>
+    <t>Orthopedic referral</t>
+  </si>
+  <si>
+    <t>69377005</t>
+  </si>
+  <si>
+    <t>Patient referral for rehabilitation, psychological (procedure)</t>
   </si>
   <si>
     <t/>
@@ -397,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,15 +470,39 @@
         <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>Version</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -324,7 +327,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -338,74 +343,76 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -427,82 +434,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -327,9 +324,7 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -343,76 +338,74 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -434,82 +427,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -324,7 +327,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -338,74 +343,76 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -427,82 +434,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -269,10 +269,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/branches/ValueSet-be-vs-referral-category.xlsx
+++ b/branches/ValueSet-be-vs-referral-category.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Belgium (http://hl7belgium.org)</t>
+  </si>
+  <si>
+    <t>Message-Structure (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -359,21 +359,19 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>18</v>
